--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_25_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_25_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -76,121 +76,118 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.001+/-0.0</t>
+    <t>0.831+/-0.002</t>
+  </si>
+  <si>
+    <t>0.804+/-0.0</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.89+/-0.076</t>
+  </si>
+  <si>
+    <t>0.603+/-0.115</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.19+/-0.027</t>
+  </si>
+  <si>
+    <t>0.087+/-0.029</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>4.903+/-0.107</t>
+  </si>
+  <si>
+    <t>0.808+/-0.001</t>
+  </si>
+  <si>
+    <t>0.797+/-0.0</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.649+/-0.026</t>
+  </si>
+  <si>
+    <t>0.482+/-0.069</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.104+/-0.017</t>
+  </si>
+  <si>
+    <t>0.083+/-0.033</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>1.0+/-0.022</t>
   </si>
   <si>
     <t>0.832+/-0.002</t>
   </si>
   <si>
-    <t>0.803+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.891+/-0.074</t>
-  </si>
-  <si>
-    <t>0.593+/-0.116</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.192+/-0.028</t>
-  </si>
-  <si>
-    <t>0.083+/-0.03</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>6.46+/-0.16</t>
-  </si>
-  <si>
-    <t>0.809+/-0.001</t>
-  </si>
-  <si>
-    <t>0.792</t>
-  </si>
-  <si>
-    <t>0.66+/-0.026</t>
-  </si>
-  <si>
-    <t>0.512+/-0.065</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.109+/-0.02</t>
-  </si>
-  <si>
-    <t>0.09+/-0.034</t>
-  </si>
-  <si>
-    <t>0.051</t>
-  </si>
-  <si>
-    <t>1.256+/-0.057</t>
-  </si>
-  <si>
-    <t>0.834+/-0.001</t>
-  </si>
-  <si>
-    <t>0.802+/-0.0</t>
-  </si>
-  <si>
-    <t>0.796</t>
-  </si>
-  <si>
-    <t>0.892+/-0.067</t>
-  </si>
-  <si>
-    <t>0.539+/-0.058</t>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.865+/-0.071</t>
+  </si>
+  <si>
+    <t>0.512+/-0.064</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.202+/-0.026</t>
+  </si>
+  <si>
+    <t>0.107+/-0.035</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>3.693+/-0.114</t>
+  </si>
+  <si>
+    <t>0.806+/-0.001</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724+/-0.095</t>
+  </si>
+  <si>
+    <t>0.555+/-0.116</t>
   </si>
   <si>
     <t>0.455</t>
   </si>
   <si>
-    <t>0.201+/-0.026</t>
-  </si>
-  <si>
-    <t>0.11+/-0.035</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>5.275+/-0.388</t>
-  </si>
-  <si>
-    <t>0.806+/-0.001</t>
-  </si>
-  <si>
-    <t>0.8+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724+/-0.091</t>
-  </si>
-  <si>
-    <t>0.56+/-0.11</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.07+/-0.023</t>
-  </si>
-  <si>
-    <t>0.05+/-0.026</t>
-  </si>
-  <si>
-    <t>0.043</t>
-  </si>
-  <si>
-    <t>1.179+/-0.154</t>
+    <t>0.069+/-0.023</t>
+  </si>
+  <si>
+    <t>0.051+/-0.023</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.624+/-0.029</t>
   </si>
   <si>
     <t>0.85+/-0.0</t>
@@ -202,226 +199,223 @@
     <t>0.871+/-0.001</t>
   </si>
   <si>
-    <t>0.852+/-0.0</t>
+    <t>0.851+/-0.0</t>
   </si>
   <si>
     <t>0.851</t>
   </si>
   <si>
-    <t>0.959+/-0.007</t>
-  </si>
-  <si>
-    <t>0.621+/-0.236</t>
+    <t>0.958+/-0.006</t>
+  </si>
+  <si>
+    <t>0.58+/-0.246</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.146+/-0.009</t>
+  </si>
+  <si>
+    <t>0.043+/-0.017</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>5.695+/-0.153</t>
+  </si>
+  <si>
+    <t>0.856+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672+/-0.029</t>
+  </si>
+  <si>
+    <t>0.504+/-0.142</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.082+/-0.008</t>
+  </si>
+  <si>
+    <t>0.057+/-0.012</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>1.024+/-0.024</t>
+  </si>
+  <si>
+    <t>0.877+/-0.001</t>
+  </si>
+  <si>
+    <t>0.958+/-0.013</t>
+  </si>
+  <si>
+    <t>0.473+/-0.112</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.185+/-0.008</t>
+  </si>
+  <si>
+    <t>0.074+/-0.024</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>4.027+/-0.327</t>
+  </si>
+  <si>
+    <t>0.854+/-0.001</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.822+/-0.051</t>
+  </si>
+  <si>
+    <t>0.505+/-0.275</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.032+/-0.007</t>
+  </si>
+  <si>
+    <t>0.018+/-0.009</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.785+/-0.134</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.769+/-0.002</t>
+  </si>
+  <si>
+    <t>0.724+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.995+/-0.003</t>
+  </si>
+  <si>
+    <t>0.533+/-0.093</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.167+/-0.006</t>
+  </si>
+  <si>
+    <t>0.038+/-0.011</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>6.379+/-0.283</t>
+  </si>
+  <si>
+    <t>0.736+/-0.001</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.675+/-0.018</t>
+  </si>
+  <si>
+    <t>0.543+/-0.099</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>0.09+/-0.005</t>
+  </si>
+  <si>
+    <t>0.068+/-0.014</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>1.159+/-0.115</t>
+  </si>
+  <si>
+    <t>0.768+/-0.002</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.917+/-0.017</t>
+  </si>
+  <si>
+    <t>0.503+/-0.049</t>
   </si>
   <si>
     <t>0.545</t>
   </si>
   <si>
-    <t>0.143+/-0.008</t>
-  </si>
-  <si>
-    <t>0.043+/-0.016</t>
-  </si>
-  <si>
-    <t>0.022</t>
-  </si>
-  <si>
-    <t>8.364+/-0.796</t>
-  </si>
-  <si>
-    <t>0.856+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678+/-0.034</t>
-  </si>
-  <si>
-    <t>0.488+/-0.154</t>
-  </si>
-  <si>
-    <t>0.519</t>
-  </si>
-  <si>
-    <t>0.081+/-0.007</t>
-  </si>
-  <si>
-    <t>0.057+/-0.012</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>1.946+/-0.059</t>
-  </si>
-  <si>
-    <t>0.877+/-0.001</t>
-  </si>
-  <si>
-    <t>0.847</t>
-  </si>
-  <si>
-    <t>0.956+/-0.013</t>
-  </si>
-  <si>
-    <t>0.486+/-0.124</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.185+/-0.009</t>
-  </si>
-  <si>
-    <t>0.073+/-0.027</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>6.924+/-0.553</t>
-  </si>
-  <si>
-    <t>0.853+/-0.001</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>0.824+/-0.054</t>
-  </si>
-  <si>
-    <t>0.61+/-0.36</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.027+/-0.009</t>
-  </si>
-  <si>
-    <t>0.014+/-0.009</t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>1.443+/-0.072</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.771+/-0.001</t>
-  </si>
-  <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.997+/-0.003</t>
-  </si>
-  <si>
-    <t>0.532+/-0.067</t>
-  </si>
-  <si>
-    <t>0.543</t>
-  </si>
-  <si>
-    <t>0.172+/-0.004</t>
-  </si>
-  <si>
-    <t>0.038+/-0.011</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>8.227+/-0.612</t>
-  </si>
-  <si>
-    <t>0.736+/-0.001</t>
-  </si>
-  <si>
-    <t>0.674+/-0.021</t>
-  </si>
-  <si>
-    <t>0.519+/-0.111</t>
-  </si>
-  <si>
-    <t>0.493</t>
-  </si>
-  <si>
-    <t>0.092+/-0.005</t>
-  </si>
-  <si>
-    <t>0.069+/-0.011</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>1.578+/-0.05</t>
-  </si>
-  <si>
-    <t>0.768+/-0.002</t>
-  </si>
-  <si>
-    <t>0.722+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>0.909+/-0.017</t>
-  </si>
-  <si>
-    <t>0.49+/-0.055</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.179+/-0.006</t>
-  </si>
-  <si>
-    <t>0.082+/-0.013</t>
-  </si>
-  <si>
-    <t>0.089</t>
-  </si>
-  <si>
-    <t>5.549+/-0.134</t>
+    <t>0.177+/-0.006</t>
+  </si>
+  <si>
+    <t>0.079+/-0.015</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>3.774+/-0.045</t>
   </si>
   <si>
     <t>0.73+/-0.001</t>
   </si>
   <si>
-    <t>0.938+/-0.022</t>
-  </si>
-  <si>
-    <t>0.549+/-0.33</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.026+/-0.003</t>
-  </si>
-  <si>
-    <t>0.011+/-0.007</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>1.411+/-0.076</t>
+    <t>0.917+/-0.03</t>
+  </si>
+  <si>
+    <t>0.567+/-0.274</t>
+  </si>
+  <si>
+    <t>0.027+/-0.003</t>
+  </si>
+  <si>
+    <t>0.01+/-0.004</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.648+/-0.016</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
@@ -430,7 +424,7 @@
     <t>0.692</t>
   </si>
   <si>
-    <t>0.738+/-0.001</t>
+    <t>0.737+/-0.002</t>
   </si>
   <si>
     <t>0.694+/-0.0</t>
@@ -439,109 +433,100 @@
     <t>0.696</t>
   </si>
   <si>
-    <t>0.994+/-0.003</t>
-  </si>
-  <si>
-    <t>0.548+/-0.146</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.15+/-0.005</t>
-  </si>
-  <si>
-    <t>0.034+/-0.012</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>9.599+/-1.259</t>
+    <t>0.553+/-0.141</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.147+/-0.007</t>
+  </si>
+  <si>
+    <t>0.034+/-0.011</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>5.345+/-0.078</t>
   </si>
   <si>
     <t>0.703+/-0.001</t>
   </si>
   <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.722+/-0.027</t>
+  </si>
+  <si>
+    <t>0.468+/-0.114</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.059+/-0.003</t>
+  </si>
+  <si>
+    <t>0.039+/-0.014</t>
+  </si>
+  <si>
+    <t>0.968+/-0.034</t>
+  </si>
+  <si>
     <t>0.695</t>
   </si>
   <si>
-    <t>0.738+/-0.018</t>
-  </si>
-  <si>
-    <t>0.492+/-0.108</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.056+/-0.003</t>
-  </si>
-  <si>
-    <t>0.035+/-0.013</t>
-  </si>
-  <si>
-    <t>0.042</t>
-  </si>
-  <si>
-    <t>1.44+/-0.018</t>
-  </si>
-  <si>
-    <t>0.738+/-0.002</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.911+/-0.014</t>
-  </si>
-  <si>
-    <t>0.508+/-0.089</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>0.167+/-0.007</t>
-  </si>
-  <si>
-    <t>0.076+/-0.021</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>5.043+/-0.102</t>
-  </si>
-  <si>
-    <t>0.7+/-0.001</t>
+    <t>0.918+/-0.014</t>
+  </si>
+  <si>
+    <t>0.468+/-0.122</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>0.161+/-0.007</t>
+  </si>
+  <si>
+    <t>0.065+/-0.022</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>3.383+/-0.079</t>
+  </si>
+  <si>
+    <t>0.699+/-0.001</t>
   </si>
   <si>
     <t>0.693</t>
   </si>
   <si>
-    <t>0.885+/-0.016</t>
-  </si>
-  <si>
-    <t>0.675+/-0.123</t>
+    <t>0.885+/-0.021</t>
+  </si>
+  <si>
+    <t>0.677+/-0.162</t>
   </si>
   <si>
     <t>0.571</t>
   </si>
   <si>
-    <t>0.029+/-0.003</t>
-  </si>
-  <si>
-    <t>0.017+/-0.008</t>
+    <t>0.028+/-0.003</t>
+  </si>
+  <si>
+    <t>0.016+/-0.007</t>
   </si>
   <si>
     <t>0.014</t>
   </si>
   <si>
-    <t>1.362+/-0.177</t>
+    <t>0.597+/-0.033</t>
   </si>
 </sst>
 </file>
@@ -930,16 +915,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -950,16 +935,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -970,16 +955,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -990,16 +975,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1010,16 +995,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1030,16 +1015,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1050,16 +1035,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1070,16 +1055,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1090,16 +1075,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1107,19 +1092,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1142,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1177,19 +1162,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1197,19 +1182,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1220,16 +1205,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1240,16 +1225,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1260,16 +1245,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1280,16 +1265,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1300,16 +1285,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1320,16 +1305,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1337,19 +1322,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1387,19 +1372,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1407,19 +1392,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1427,19 +1412,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1450,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1470,16 +1455,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1490,16 +1475,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1510,16 +1495,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1530,16 +1515,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1550,16 +1535,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
         <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1567,19 +1552,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1617,19 +1602,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1637,19 +1622,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1657,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1680,16 +1665,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1700,16 +1685,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1720,16 +1705,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1740,16 +1725,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1760,16 +1745,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1780,16 +1765,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1797,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
